--- a/spreadsheet/macrofree/servicebus_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/servicebus_checklist.ko.xlsx
@@ -1983,12 +1983,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 애플리케이션은 관리 ID를 사용하여 Azure Service Bus에 인증해야 합니다. 그렇지 않은 경우 Azure Key Vault 또는 동등한 서비스에 스토리지 자격 증명(SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다</t>
+          <t>가능한 경우 SAS 키 인증(또는 로컬 인증)을 사용하지 않도록 설정하고 인증에 Microsoft Entra ID만 사용합니다</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 리소스 지원을 위해 관리되는 엔터티가 사용하도록 설정된 가상 머신 또는 Azure App Service 애플리케이션 내에서 실행되는 Service Bus 클라이언트 앱은 SAS 규칙 및 키 또는 기타 액세스 토큰을 처리할 필요가 없습니다. 클라이언트 앱에는 Service Bus 메시징 네임스페이스의 엔드포인트 주소만 필요합니다. </t>
+          <t>Microsoft Entra ID는 SAS(공유 액세스 서명)보다 뛰어난 보안과 사용 편의성을 제공합니다. Microsoft Entra ID를 사용하면 코드에 토큰을 저장하고 잠재적인 보안 취약성을 감수할 필요가 없습니다. 가능하면 Azure Service Bus 애플리케이션에서 Microsoft Entra ID를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-bus-messaging/service-bus-managed-service-identity</t>
+          <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/disable-local-authentication</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
